--- a/src/test/resources/excel/reference/output_both.xlsx
+++ b/src/test/resources/excel/reference/output_both.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr documentId="8_{8D72643E-0512-4117-819D-F45B730AA461}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{29451585-4DE0-4947-9A5A-A09A5E700D64}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11790" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="11790" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" r:id="rId1" sheetId="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -358,12 +358,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -567,7 +566,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -582,8 +581,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
+          <a:off x="5781261" y="1432893"/>
+          <a:ext cx="2352261" cy="604629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,6 +612,18 @@
             <a:rPr altLang="en-US" lang="ja-JP"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr altLang="ja-JP" lang="en-US"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -697,68 +708,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>803413</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DB0121-3821-40EA-AB50-26B5C5332F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5784988" y="1434135"/>
-          <a:ext cx="2344807" cy="456372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP"/>
-            <a:t>本シートは保護シートです。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -831,6 +780,80 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1424608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299765D6-7DCB-490E-8CB0-8CD612E74400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5549347" y="1515718"/>
+          <a:ext cx="2352261" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>本シートは保護シートです。</a:t>
+          </a:r>
+          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr altLang="ja-JP" lang="en-US"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1124,11 +1147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1322,7 +1345,7 @@
     <row r="26" ht="20.25" customHeight="true"/>
     <row r="27" ht="20.25" customHeight="true"/>
   </sheetData>
-  <sheetProtection objects="1" password="C404" scenarios="1" selectLockedCells="1" sheet="1"/>
+  <sheetProtection password="C404" selectLockedCells="1" sheet="1"/>
   <mergeCells>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1335,12 +1358,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
